--- a/Mo ta bang.xlsx
+++ b/Mo ta bang.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="61">
   <si>
     <t>STT</t>
   </si>
@@ -73,30 +73,12 @@
     <t>not null</t>
   </si>
   <si>
-    <t>KHACHHANG</t>
-  </si>
-  <si>
     <t>idKH</t>
   </si>
   <si>
-    <t>tenKH</t>
-  </si>
-  <si>
-    <t>diachiKH</t>
-  </si>
-  <si>
-    <t>phoneKH</t>
-  </si>
-  <si>
-    <t>emailKH</t>
-  </si>
-  <si>
     <t>PHIEUNHAP</t>
   </si>
   <si>
-    <t>Khóa chính (là mã khách hàng)</t>
-  </si>
-  <si>
     <t>Khóa chính (là mã phiếu nhập)</t>
   </si>
   <si>
@@ -179,6 +161,42 @@
   </si>
   <si>
     <t>CHITIETPX</t>
+  </si>
+  <si>
+    <t>ACCOUNT</t>
+  </si>
+  <si>
+    <t>idACC</t>
+  </si>
+  <si>
+    <t>Khóa chính (là mã người dùng)</t>
+  </si>
+  <si>
+    <t>tenACC</t>
+  </si>
+  <si>
+    <t>nvarchar(20)</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>tenDN</t>
+  </si>
+  <si>
+    <t>Khoá phụ (là khóa chính của quyền user)</t>
+  </si>
+  <si>
+    <t>idQU</t>
+  </si>
+  <si>
+    <t>QUYENUSER</t>
+  </si>
+  <si>
+    <t>Khóa chính (là mã quyền truy cập)</t>
+  </si>
+  <si>
+    <t>tenQU</t>
   </si>
 </sst>
 </file>
@@ -282,11 +300,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -301,16 +316,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -617,208 +638,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.59765625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.59765625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
-        <v>1</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
-        <v>2</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="4">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
+      <c r="C11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>3</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="C12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>4</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
+      <c r="C13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>5</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="C14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -826,296 +847,302 @@
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
-        <v>1</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>2</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>1</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
+        <v>2</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
+        <v>4</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
+        <v>1</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
+        <v>2</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
-        <v>2</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="4">
+        <v>1</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="4">
+        <v>2</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="4">
+        <v>3</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="4">
+        <v>4</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
-        <v>3</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
-        <v>4</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="4">
         <v>5</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="5">
-        <v>1</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="5">
-        <v>2</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="B39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="5">
-        <v>1</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="5">
-        <v>2</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="5">
-        <v>3</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="5">
-        <v>4</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="5">
-        <v>1</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="5">
-        <v>2</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6" t="s">
+      <c r="D39" s="5"/>
+      <c r="E39" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1123,110 +1150,165 @@
       <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="B42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="5">
-        <v>1</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="A43" s="4">
+        <v>1</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="5">
-        <v>2</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="6" t="s">
+      <c r="A44" s="4">
+        <v>2</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E44" s="10"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="5">
+      <c r="A45" s="4">
         <v>3</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="9"/>
+      <c r="B45" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="5">
+      <c r="A46" s="4">
         <v>4</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6" t="s">
+      <c r="B46" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="5">
+      <c r="A47" s="4">
         <v>5</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6" t="s">
+      <c r="B47" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="4">
+        <v>1</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="4">
+        <v>2</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="E43:E45"/>
+  <mergeCells count="10">
+    <mergeCell ref="E23:E24"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="E35:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
